--- a/config_12.01/fish3d_use_config.xlsx
+++ b/config_12.01/fish3d_use_config.xlsx
@@ -139,7 +139,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,7 +196,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -204,8 +210,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1021,16 +1033,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+      <selection activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="7"/>
+    <col min="3" max="3" width="11.5" style="7" customWidth="1"/>
     <col min="4" max="4" width="37.875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1768,7 +1781,7 @@
         <f>[1]use_fish!$B81</f>
         <v>18</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1780,7 +1793,7 @@
         <f>[1]use_fish!$B82</f>
         <v>17</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1792,7 +1805,7 @@
         <f>[1]use_fish!$B83</f>
         <v>15</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1804,7 +1817,7 @@
         <f>[1]use_fish!$B84</f>
         <v>13</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1843,7 +1856,7 @@
         <f>[1]use_fish!$B88</f>
         <v>53</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1855,7 +1868,7 @@
         <f>[1]use_fish!$B89</f>
         <v>54</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1867,7 +1880,7 @@
         <f>[1]use_fish!$B90</f>
         <v>55</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1879,7 +1892,7 @@
         <f>[1]use_fish!$B91</f>
         <v>56</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1927,7 +1940,7 @@
         <f>[1]use_fish!$B95</f>
         <v>11</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="7">
         <v>9</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -1942,7 +1955,7 @@
         <f>[1]use_fish!$B96</f>
         <v>12</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="7">
         <v>9</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -1957,7 +1970,7 @@
         <f>[1]use_fish!$B97</f>
         <v>13</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="7">
         <v>9</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -1972,7 +1985,7 @@
         <f>[1]use_fish!$B98</f>
         <v>14</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="7">
         <v>9</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -1987,7 +2000,7 @@
         <f>[1]use_fish!$B99</f>
         <v>15</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="7">
         <v>9</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -2002,7 +2015,7 @@
         <f>[1]use_fish!$B100</f>
         <v>16</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="7">
         <v>9</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -2017,7 +2030,7 @@
         <f>[1]use_fish!$B101</f>
         <v>17</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="7">
         <v>9</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -2031,7 +2044,7 @@
       <c r="B102" s="4">
         <v>13</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2042,7 +2055,7 @@
       <c r="B103" s="4">
         <v>14</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2053,7 +2066,7 @@
       <c r="B104" s="4">
         <v>15</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2064,7 +2077,7 @@
       <c r="B105" s="4">
         <v>16</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2075,7 +2088,7 @@
       <c r="B106" s="4">
         <v>17</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2086,7 +2099,7 @@
       <c r="B107" s="4">
         <v>18</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2097,7 +2110,7 @@
       <c r="B108" s="4">
         <v>58</v>
       </c>
-      <c r="C108" s="5"/>
+      <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
@@ -2106,7 +2119,7 @@
       <c r="B109" s="4">
         <v>58</v>
       </c>
-      <c r="C109" s="5"/>
+      <c r="C109" s="4"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
@@ -2115,7 +2128,23 @@
       <c r="B110" s="4">
         <v>58</v>
       </c>
-      <c r="C110" s="5"/>
+      <c r="C110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="5">
+        <v>110</v>
+      </c>
+      <c r="B111" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
+        <v>111</v>
+      </c>
+      <c r="B112" s="6">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
